--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/tetris/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68110B9B-6211-9E4D-B47C-F75A7D0EA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B1260-FBA6-344E-ABC3-8E444EAF59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Data Inflasi</t>
   </si>
   <si>
     <t>Periode</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -106,15 +109,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -124,6 +124,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,286 +446,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>44774</v>
       </c>
-      <c r="B2" s="6">
+      <c r="C2" s="5">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
         <v>44743</v>
       </c>
-      <c r="B3" s="4">
+      <c r="C3" s="3">
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>44713</v>
       </c>
-      <c r="B4" s="4">
+      <c r="C4" s="3">
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
         <v>44682</v>
       </c>
-      <c r="B5" s="4">
+      <c r="C5" s="3">
         <v>8.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
         <v>44652</v>
       </c>
-      <c r="B6" s="4">
+      <c r="C6" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>44621</v>
       </c>
-      <c r="B7" s="4">
+      <c r="C7" s="3">
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>44593</v>
       </c>
-      <c r="B8" s="4">
+      <c r="C8" s="3">
         <v>7.9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>44562</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="3">
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>44531</v>
       </c>
-      <c r="B10" s="4">
+      <c r="C10" s="3">
         <v>7.0000000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
         <v>44501</v>
       </c>
-      <c r="B11" s="4">
+      <c r="C11" s="3">
         <v>6.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>44470</v>
       </c>
-      <c r="B12" s="4">
+      <c r="C12" s="3">
         <v>6.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
         <v>44440</v>
       </c>
-      <c r="B13" s="4">
+      <c r="C13" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
         <v>44409</v>
       </c>
-      <c r="B14" s="4">
+      <c r="C14" s="3">
         <v>5.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
         <v>44378</v>
       </c>
-      <c r="B15" s="4">
+      <c r="C15" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
         <v>44348</v>
       </c>
-      <c r="B16" s="4">
+      <c r="C16" s="3">
         <v>5.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>44317</v>
       </c>
-      <c r="B17" s="4">
+      <c r="C17" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
         <v>44287</v>
       </c>
-      <c r="B18" s="4">
+      <c r="C18" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
         <v>44256</v>
       </c>
-      <c r="B19" s="4">
+      <c r="C19" s="3">
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
         <v>44228</v>
       </c>
-      <c r="B20" s="4">
+      <c r="C20" s="3">
         <v>1.7000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
         <v>44197</v>
       </c>
-      <c r="B21" s="4">
+      <c r="C21" s="3">
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
         <v>44166</v>
       </c>
-      <c r="B22" s="4">
+      <c r="C22" s="3">
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
         <v>44136</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C23" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
         <v>44105</v>
       </c>
-      <c r="B24" s="4">
+      <c r="C24" s="3">
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
         <v>44075</v>
       </c>
-      <c r="B25" s="4">
+      <c r="C25" s="3">
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
         <v>44044</v>
       </c>
-      <c r="B26" s="4">
+      <c r="C26" s="3">
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
         <v>44013</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C27" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
         <v>43983</v>
       </c>
-      <c r="B28" s="4">
+      <c r="C28" s="3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
         <v>43952</v>
       </c>
-      <c r="B29" s="4">
+      <c r="C29" s="3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
         <v>43922</v>
       </c>
-      <c r="B30" s="4">
+      <c r="C30" s="3">
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
         <v>43891</v>
       </c>
-      <c r="B31" s="4">
+      <c r="C31" s="3">
         <v>1.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
         <v>43862</v>
       </c>
-      <c r="B32" s="4">
+      <c r="C32" s="3">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
         <v>43831</v>
       </c>
-      <c r="B33" s="4">
+      <c r="C33" s="3">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1"/>
     <mergeCell ref="B1"/>
+    <mergeCell ref="C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Desktop/tetris/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71B1260-FBA6-344E-ABC3-8E444EAF59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575DF60-FCE5-4845-B4B0-940C44C31151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,13 +124,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -462,16 +462,16 @@
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>1</v>
+      <c r="A2" s="6">
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>44774</v>
@@ -481,8 +481,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>2</v>
+      <c r="A3" s="6">
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>44743</v>
@@ -492,8 +492,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>3</v>
+      <c r="A4" s="6">
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>44713</v>
@@ -503,8 +503,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>4</v>
+      <c r="A5" s="6">
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>44682</v>
@@ -514,8 +514,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>5</v>
+      <c r="A6" s="6">
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>44652</v>
@@ -525,8 +525,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>6</v>
+      <c r="A7" s="6">
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>44621</v>
@@ -536,8 +536,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>7</v>
+      <c r="A8" s="6">
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>44593</v>
@@ -547,8 +547,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>8</v>
+      <c r="A9" s="6">
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>44562</v>
@@ -558,8 +558,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>9</v>
+      <c r="A10" s="6">
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>44531</v>
@@ -569,8 +569,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>10</v>
+      <c r="A11" s="6">
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>44501</v>
@@ -580,8 +580,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>11</v>
+      <c r="A12" s="6">
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>44470</v>
@@ -591,8 +591,8 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>12</v>
+      <c r="A13" s="6">
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>44440</v>
@@ -602,8 +602,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>13</v>
+      <c r="A14" s="6">
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>44409</v>
@@ -613,8 +613,8 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>14</v>
+      <c r="A15" s="6">
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>44378</v>
@@ -624,8 +624,8 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>15</v>
+      <c r="A16" s="6">
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>44348</v>
@@ -635,8 +635,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>16</v>
+      <c r="A17" s="6">
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>44317</v>
@@ -646,8 +646,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>17</v>
+      <c r="A18" s="6">
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>44287</v>
@@ -657,8 +657,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>18</v>
+      <c r="A19" s="6">
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>44256</v>
@@ -668,8 +668,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>19</v>
+      <c r="A20" s="6">
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>44228</v>
@@ -679,8 +679,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>20</v>
+      <c r="A21" s="6">
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>44197</v>
@@ -690,8 +690,8 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>21</v>
+      <c r="A22" s="6">
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>44166</v>
@@ -701,8 +701,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>22</v>
+      <c r="A23" s="6">
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>44136</v>
@@ -712,8 +712,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>23</v>
+      <c r="A24" s="6">
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>44105</v>
@@ -723,8 +723,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>24</v>
+      <c r="A25" s="6">
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>44075</v>
@@ -734,8 +734,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>25</v>
+      <c r="A26" s="6">
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>44044</v>
@@ -745,8 +745,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>26</v>
+      <c r="A27" s="6">
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>44013</v>
@@ -756,8 +756,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>27</v>
+      <c r="A28" s="6">
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>43983</v>
@@ -767,8 +767,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>28</v>
+      <c r="A29" s="6">
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>43952</v>
@@ -778,8 +778,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>29</v>
+      <c r="A30" s="6">
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>43922</v>
@@ -789,8 +789,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>30</v>
+      <c r="A31" s="6">
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>43891</v>
@@ -800,8 +800,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>31</v>
+      <c r="A32" s="6">
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>43862</v>
@@ -811,8 +811,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>32</v>
+      <c r="A33" s="6">
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>43831</v>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7575DF60-FCE5-4845-B4B0-940C44C31151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A203433F-A76F-1249-BD6D-673796CA5DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Inflasi" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Data Inflasi</t>
   </si>
   <si>
     <t>Periode</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -448,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -459,9 +454,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A203433F-A76F-1249-BD6D-673796CA5DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CC002-64E8-2546-94C7-9F0F6FE31AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -464,7 +466,7 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>44774</v>
@@ -475,7 +477,7 @@
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>44743</v>
@@ -486,7 +488,7 @@
     </row>
     <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>44713</v>
@@ -497,7 +499,7 @@
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>44682</v>
@@ -508,7 +510,7 @@
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>44652</v>
@@ -519,7 +521,7 @@
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>44621</v>
@@ -530,7 +532,7 @@
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>44593</v>
@@ -541,7 +543,7 @@
     </row>
     <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>44562</v>
@@ -552,7 +554,7 @@
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>44531</v>
@@ -563,7 +565,7 @@
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>44501</v>
@@ -574,7 +576,7 @@
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>44470</v>
@@ -585,7 +587,7 @@
     </row>
     <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>44440</v>
@@ -596,7 +598,7 @@
     </row>
     <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>44409</v>
@@ -607,7 +609,7 @@
     </row>
     <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>44378</v>
@@ -618,7 +620,7 @@
     </row>
     <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>44348</v>
@@ -629,7 +631,7 @@
     </row>
     <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>44317</v>
@@ -640,7 +642,7 @@
     </row>
     <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>44287</v>
@@ -651,7 +653,7 @@
     </row>
     <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>44256</v>
@@ -662,7 +664,7 @@
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>44228</v>
@@ -673,7 +675,7 @@
     </row>
     <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>44197</v>
@@ -684,7 +686,7 @@
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>44166</v>
@@ -695,7 +697,7 @@
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>44136</v>
@@ -706,7 +708,7 @@
     </row>
     <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>44105</v>
@@ -717,7 +719,7 @@
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>44075</v>
@@ -728,7 +730,7 @@
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>44044</v>
@@ -739,7 +741,7 @@
     </row>
     <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>44013</v>
@@ -750,7 +752,7 @@
     </row>
     <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>43983</v>
@@ -761,7 +763,7 @@
     </row>
     <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>43952</v>
@@ -772,7 +774,7 @@
     </row>
     <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>43922</v>
@@ -783,7 +785,7 @@
     </row>
     <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>43891</v>
@@ -794,7 +796,7 @@
     </row>
     <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>43862</v>
@@ -805,7 +807,7 @@
     </row>
     <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>43831</v>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9CC002-64E8-2546-94C7-9F0F6FE31AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726AAC0-E010-FB45-90C0-84DB9E35C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Inflasi" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Data Inflasi</t>
   </si>
   <si>
     <t>Periode</t>
+  </si>
+  <si>
+    <t>Suku Bunga</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -127,6 +130,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -443,19 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -463,357 +470,470 @@
       <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="C2" s="5">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2" s="9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>44743</v>
-      </c>
-      <c r="C3" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>44774</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="C4" s="3">
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="C5" s="3">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>9.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="C6" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>8.6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="C7" s="3">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="3">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>8.5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="C9" s="3">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>7.9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="3">
-        <v>7.0000000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="C11" s="3">
-        <v>6.8000000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="C12" s="3">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="C13" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>6.2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="C14" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="C15" s="3">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>5.3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="C16" s="3">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D16" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>5.4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="C18" s="3">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="3">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="C20" s="3">
-        <v>1.7000000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>2.6</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="C21" s="3">
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="C22" s="3">
         <v>1.4000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D22" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="C23" s="3">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="C24" s="3">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="C25" s="3">
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="C26" s="3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="C27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="C28" s="3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="C29" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>0.6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="C30" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>0.1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="C31" s="3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="C32" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
         <v>43831</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>2.5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D726AAC0-E010-FB45-90C0-84DB9E35C7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B92357-C952-8743-A6DB-D511FBA71BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="4">
   <si>
     <t>Data Inflasi</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Suku Bunga</t>
+  </si>
+  <si>
+    <t>Nilai</t>
   </si>
 </sst>
 </file>
@@ -125,14 +128,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A34" sqref="A34:A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,14 +467,14 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -484,8 +487,8 @@
       <c r="C2" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D2" s="9">
-        <v>3.25</v>
+      <c r="D2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -498,8 +501,8 @@
       <c r="C3" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D3" s="5">
-        <v>3</v>
+      <c r="D3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -512,8 +515,8 @@
       <c r="C4" s="3">
         <v>8.5</v>
       </c>
-      <c r="D4" s="3">
-        <v>2.5</v>
+      <c r="D4" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -526,8 +529,8 @@
       <c r="C5" s="3">
         <v>9.1</v>
       </c>
-      <c r="D5" s="3">
-        <v>1.75</v>
+      <c r="D5" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -540,8 +543,8 @@
       <c r="C6" s="3">
         <v>8.6</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -554,8 +557,8 @@
       <c r="C7" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D7" s="3">
-        <v>0.5</v>
+      <c r="D7" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -568,8 +571,8 @@
       <c r="C8" s="3">
         <v>8.5</v>
       </c>
-      <c r="D8" s="3">
-        <v>0.5</v>
+      <c r="D8" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -582,8 +585,8 @@
       <c r="C9" s="3">
         <v>7.9</v>
       </c>
-      <c r="D9" s="3">
-        <v>0.25</v>
+      <c r="D9" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -596,8 +599,8 @@
       <c r="C10" s="3">
         <v>7.5</v>
       </c>
-      <c r="D10" s="3">
-        <v>0.25</v>
+      <c r="D10" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -610,8 +613,8 @@
       <c r="C11" s="3">
         <v>7.0000000000000009</v>
       </c>
-      <c r="D11" s="3">
-        <v>0.25</v>
+      <c r="D11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -624,8 +627,8 @@
       <c r="C12" s="3">
         <v>6.8000000000000007</v>
       </c>
-      <c r="D12" s="3">
-        <v>0.25</v>
+      <c r="D12" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -638,8 +641,8 @@
       <c r="C13" s="3">
         <v>6.2</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.25</v>
+      <c r="D13" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -652,8 +655,8 @@
       <c r="C14" s="3">
         <v>5.4</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.25</v>
+      <c r="D14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -666,8 +669,8 @@
       <c r="C15" s="3">
         <v>5.3</v>
       </c>
-      <c r="D15" s="3">
-        <v>0.25</v>
+      <c r="D15" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -680,8 +683,8 @@
       <c r="C16" s="3">
         <v>5.4</v>
       </c>
-      <c r="D16" s="3">
-        <v>0.25</v>
+      <c r="D16" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -694,8 +697,8 @@
       <c r="C17" s="3">
         <v>5.4</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.25</v>
+      <c r="D17" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -708,8 +711,8 @@
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3">
-        <v>0.25</v>
+      <c r="D18" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -722,8 +725,8 @@
       <c r="C19" s="3">
         <v>4.2</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.25</v>
+      <c r="D19" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -736,8 +739,8 @@
       <c r="C20" s="3">
         <v>2.6</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.25</v>
+      <c r="D20" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -750,8 +753,8 @@
       <c r="C21" s="3">
         <v>1.7000000000000002</v>
       </c>
-      <c r="D21" s="3">
-        <v>0.25</v>
+      <c r="D21" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -764,8 +767,8 @@
       <c r="C22" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.25</v>
+      <c r="D22" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -778,8 +781,8 @@
       <c r="C23" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.25</v>
+      <c r="D23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -792,8 +795,8 @@
       <c r="C24" s="3">
         <v>1.2</v>
       </c>
-      <c r="D24" s="3">
-        <v>0.25</v>
+      <c r="D24" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -806,8 +809,8 @@
       <c r="C25" s="3">
         <v>1.2</v>
       </c>
-      <c r="D25" s="3">
-        <v>0.25</v>
+      <c r="D25" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -820,8 +823,8 @@
       <c r="C26" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D26" s="3">
-        <v>0.25</v>
+      <c r="D26" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -834,8 +837,8 @@
       <c r="C27" s="3">
         <v>1.3</v>
       </c>
-      <c r="D27" s="3">
-        <v>0.25</v>
+      <c r="D27" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -848,8 +851,8 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="3">
-        <v>0.25</v>
+      <c r="D28" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -862,8 +865,8 @@
       <c r="C29" s="3">
         <v>0.6</v>
       </c>
-      <c r="D29" s="3">
-        <v>0.25</v>
+      <c r="D29" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -876,8 +879,8 @@
       <c r="C30" s="3">
         <v>0.1</v>
       </c>
-      <c r="D30" s="3">
-        <v>0.25</v>
+      <c r="D30" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -890,8 +893,8 @@
       <c r="C31" s="3">
         <v>0.3</v>
       </c>
-      <c r="D31" s="3">
-        <v>0.25</v>
+      <c r="D31" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -904,8 +907,8 @@
       <c r="C32" s="3">
         <v>1.5</v>
       </c>
-      <c r="D32" s="3">
-        <v>0.25</v>
+      <c r="D32" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -918,8 +921,8 @@
       <c r="C33" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D33" s="3">
-        <v>1.75</v>
+      <c r="D33" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -932,8 +935,470 @@
       <c r="C34" s="3">
         <v>2.5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>44805</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>44774</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>44743</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>44713</v>
+      </c>
+      <c r="C38" s="3">
         <v>1.75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>44682</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>44621</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>44593</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>44562</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>44531</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44501</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>44470</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>44440</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>44409</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>44378</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44348</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44317</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B92357-C952-8743-A6DB-D511FBA71BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D9881-4706-FA48-A9FC-73F1BCEAA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>Suku Bunga</t>
   </si>
   <si>
-    <t>Nilai</t>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A67"/>
+      <selection activeCell="D2" sqref="D2:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -487,7 +487,7 @@
       <c r="C2" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -501,7 +501,7 @@
       <c r="C3" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -515,7 +515,7 @@
       <c r="C4" s="3">
         <v>8.5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -529,7 +529,7 @@
       <c r="C5" s="3">
         <v>9.1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -543,7 +543,7 @@
       <c r="C6" s="3">
         <v>8.6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -557,7 +557,7 @@
       <c r="C7" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -571,7 +571,7 @@
       <c r="C8" s="3">
         <v>8.5</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -585,7 +585,7 @@
       <c r="C9" s="3">
         <v>7.9</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
       <c r="C10" s="3">
         <v>7.5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -613,7 +613,7 @@
       <c r="C11" s="3">
         <v>7.0000000000000009</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -627,7 +627,7 @@
       <c r="C12" s="3">
         <v>6.8000000000000007</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       <c r="C13" s="3">
         <v>6.2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -655,7 +655,7 @@
       <c r="C14" s="3">
         <v>5.4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -669,7 +669,7 @@
       <c r="C15" s="3">
         <v>5.3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -683,7 +683,7 @@
       <c r="C16" s="3">
         <v>5.4</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="C17" s="3">
         <v>5.4</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -711,7 +711,7 @@
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -725,7 +725,7 @@
       <c r="C19" s="3">
         <v>4.2</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="C20" s="3">
         <v>2.6</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="C21" s="3">
         <v>1.7000000000000002</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -767,7 +767,7 @@
       <c r="C22" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -781,7 +781,7 @@
       <c r="C23" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -795,7 +795,7 @@
       <c r="C24" s="3">
         <v>1.2</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="C25" s="3">
         <v>1.2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -823,7 +823,7 @@
       <c r="C26" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -837,7 +837,7 @@
       <c r="C27" s="3">
         <v>1.3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="C29" s="3">
         <v>0.6</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -879,7 +879,7 @@
       <c r="C30" s="3">
         <v>0.1</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="C31" s="3">
         <v>0.3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -907,7 +907,7 @@
       <c r="C32" s="3">
         <v>1.5</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="C33" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -935,7 +935,7 @@
       <c r="C34" s="3">
         <v>2.5</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="C35" s="7">
         <v>3.25</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -963,7 +963,7 @@
       <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="C37" s="3">
         <v>2.5</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
       <c r="C38" s="3">
         <v>1.75</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="C40" s="3">
         <v>0.5</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="C41" s="3">
         <v>0.5</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       <c r="C42" s="3">
         <v>0.25</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       <c r="C43" s="3">
         <v>0.25</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       <c r="C44" s="3">
         <v>0.25</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="C45" s="3">
         <v>0.25</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="C46" s="3">
         <v>0.25</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       <c r="C47" s="3">
         <v>0.25</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       <c r="C48" s="3">
         <v>0.25</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       <c r="C49" s="3">
         <v>0.25</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       <c r="C50" s="3">
         <v>0.25</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       <c r="C51" s="3">
         <v>0.25</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="C52" s="3">
         <v>0.25</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       <c r="C53" s="3">
         <v>0.25</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       <c r="C54" s="3">
         <v>0.25</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       <c r="C55" s="3">
         <v>0.25</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       <c r="C56" s="3">
         <v>0.25</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       <c r="C57" s="3">
         <v>0.25</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       <c r="C58" s="3">
         <v>0.25</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       <c r="C59" s="3">
         <v>0.25</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       <c r="C60" s="3">
         <v>0.25</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       <c r="C61" s="3">
         <v>0.25</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="C62" s="3">
         <v>0.25</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       <c r="C63" s="3">
         <v>0.25</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="C64" s="3">
         <v>0.25</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="C65" s="3">
         <v>0.25</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="C66" s="3">
         <v>1.75</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       <c r="C67" s="3">
         <v>1.75</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D9881-4706-FA48-A9FC-73F1BCEAA090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D608B-BE37-3E43-B42A-98F3D34DF2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="10720" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20680" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Inflasi" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
   <si>
     <t>Data Inflasi</t>
   </si>
@@ -46,13 +46,17 @@
   <si>
     <t>Rate</t>
   </si>
+  <si>
+    <t>Tingkat Inflasi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -112,11 +116,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -131,12 +132,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,949 +460,949 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D67"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
+      <c r="A1" s="1"/>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="9">
         <v>44805</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
         <v>44774</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="9">
         <v>44743</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>8.5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="9">
         <v>44713</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>9.1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="9">
         <v>44682</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>8.6</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="9">
         <v>44652</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="9">
         <v>44621</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>8.5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="9">
         <v>44593</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>7.9</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="9">
         <v>44562</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>7.5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="9">
         <v>44531</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>7.0000000000000009</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="9">
         <v>44501</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>6.8000000000000007</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="9">
         <v>44470</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>6.2</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="9">
         <v>44440</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>5.4</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="9">
         <v>44409</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>5.3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="9">
         <v>44378</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>5.4</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="9">
         <v>44348</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>5.4</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="9">
         <v>44317</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="9">
         <v>44287</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>4.2</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="9">
         <v>44256</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>2.6</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="9">
         <v>44228</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>1.7000000000000002</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="9">
         <v>44197</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="9">
         <v>44166</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="9">
         <v>44136</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>1.2</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="9">
         <v>44105</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>1.2</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="9">
         <v>44075</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>1.4000000000000001</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="9">
         <v>44044</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>1.3</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="9">
         <v>44013</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="9">
         <v>43983</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>0.6</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="9">
         <v>43952</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>0.1</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="9">
         <v>43922</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>0.3</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="9">
         <v>43891</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>1.5</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="9">
         <v>43862</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="9">
         <v>43831</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>2.5</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="9">
         <v>44805</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>3.25</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="9">
         <v>44774</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>3</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="9">
         <v>44743</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>2.5</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="9">
         <v>44713</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>1.75</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="9">
         <v>44682</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="9">
         <v>44652</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>0.5</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="9">
         <v>44621</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.5</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="9">
         <v>44593</v>
       </c>
-      <c r="C42" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="9">
         <v>44562</v>
       </c>
-      <c r="C43" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="9">
         <v>44531</v>
       </c>
-      <c r="C44" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="9">
         <v>44501</v>
       </c>
-      <c r="C45" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="9">
         <v>44470</v>
       </c>
-      <c r="C46" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="9">
         <v>44440</v>
       </c>
-      <c r="C47" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="9">
         <v>44409</v>
       </c>
-      <c r="C48" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="9">
         <v>44378</v>
       </c>
-      <c r="C49" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="9">
         <v>44348</v>
       </c>
-      <c r="C50" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="9">
         <v>44317</v>
       </c>
-      <c r="C51" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="9">
         <v>44287</v>
       </c>
-      <c r="C52" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="9">
         <v>44256</v>
       </c>
-      <c r="C53" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="9">
         <v>44228</v>
       </c>
-      <c r="C54" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="9">
         <v>44197</v>
       </c>
-      <c r="C55" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="9">
         <v>44166</v>
       </c>
-      <c r="C56" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="9">
         <v>44136</v>
       </c>
-      <c r="C57" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="9">
         <v>44105</v>
       </c>
-      <c r="C58" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="9">
         <v>44075</v>
       </c>
-      <c r="C59" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="9">
         <v>44044</v>
       </c>
-      <c r="C60" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="9">
         <v>44013</v>
       </c>
-      <c r="C61" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="9">
         <v>43983</v>
       </c>
-      <c r="C62" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="9">
         <v>43952</v>
       </c>
-      <c r="C63" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="9">
         <v>43922</v>
       </c>
-      <c r="C64" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="9">
         <v>43891</v>
       </c>
-      <c r="C65" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="9">
         <v>43862</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="2">
         <v>1.75</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="9">
         <v>43831</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="2">
         <v>1.75</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>2</v>
       </c>
     </row>

--- a/DataInflasiAS.xlsx
+++ b/DataInflasiAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vianbeladona/Documents/GitHub/capstone_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D608B-BE37-3E43-B42A-98F3D34DF2A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EA022B-8E3E-1942-8CB7-DB838DFDF49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20680" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5420" yWindow="500" windowWidth="20680" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Inflasi" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="5">
   <si>
-    <t>Data Inflasi</t>
-  </si>
-  <si>
     <t>Periode</t>
   </si>
   <si>
@@ -49,6 +46,9 @@
   <si>
     <t>Tingkat Inflasi</t>
   </si>
+  <si>
+    <t>Nilai</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +56,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,16 +132,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,953 +458,955 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>44805</v>
       </c>
       <c r="C2" s="4">
         <v>8.1999999999999993</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>44774</v>
       </c>
       <c r="C3" s="4">
         <v>8.3000000000000007</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>44743</v>
       </c>
       <c r="C4" s="2">
         <v>8.5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>44713</v>
       </c>
       <c r="C5" s="2">
         <v>9.1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>44682</v>
       </c>
       <c r="C6" s="2">
         <v>8.6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>44652</v>
       </c>
       <c r="C7" s="2">
         <v>8.3000000000000007</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>44621</v>
       </c>
       <c r="C8" s="2">
         <v>8.5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>44593</v>
       </c>
       <c r="C9" s="2">
         <v>7.9</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>44562</v>
       </c>
       <c r="C10" s="2">
         <v>7.5</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>44531</v>
       </c>
       <c r="C11" s="2">
         <v>7.0000000000000009</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>44501</v>
       </c>
       <c r="C12" s="2">
         <v>6.8000000000000007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>44470</v>
       </c>
       <c r="C13" s="2">
         <v>6.2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>44440</v>
       </c>
       <c r="C14" s="2">
         <v>5.4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>44409</v>
       </c>
       <c r="C15" s="2">
         <v>5.3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>44378</v>
       </c>
       <c r="C16" s="2">
         <v>5.4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>44348</v>
       </c>
       <c r="C17" s="2">
         <v>5.4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>44317</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>44287</v>
       </c>
       <c r="C19" s="2">
         <v>4.2</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>44256</v>
       </c>
       <c r="C20" s="2">
         <v>2.6</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>44228</v>
       </c>
       <c r="C21" s="2">
         <v>1.7000000000000002</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>44197</v>
       </c>
       <c r="C22" s="2">
         <v>1.4000000000000001</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>44166</v>
       </c>
       <c r="C23" s="2">
         <v>1.4000000000000001</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>44136</v>
       </c>
       <c r="C24" s="2">
         <v>1.2</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>44105</v>
       </c>
       <c r="C25" s="2">
         <v>1.2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>44075</v>
       </c>
       <c r="C26" s="2">
         <v>1.4000000000000001</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>44044</v>
       </c>
       <c r="C27" s="2">
         <v>1.3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>44013</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>43983</v>
       </c>
       <c r="C29" s="2">
         <v>0.6</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="7">
         <v>43952</v>
       </c>
       <c r="C30" s="2">
         <v>0.1</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="7">
         <v>43922</v>
       </c>
       <c r="C31" s="2">
         <v>0.3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>43891</v>
       </c>
       <c r="C32" s="2">
         <v>1.5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="7">
         <v>43862</v>
       </c>
       <c r="C33" s="2">
         <v>2.2999999999999998</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>43831</v>
       </c>
       <c r="C34" s="2">
         <v>2.5</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="7">
         <v>44805</v>
       </c>
       <c r="C35" s="6">
         <v>3.25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>44774</v>
       </c>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="7">
         <v>44743</v>
       </c>
       <c r="C37" s="2">
         <v>2.5</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="7">
         <v>44713</v>
       </c>
       <c r="C38" s="2">
         <v>1.75</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="7">
         <v>44682</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="7">
         <v>44652</v>
       </c>
       <c r="C40" s="2">
         <v>0.5</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="7">
         <v>44621</v>
       </c>
       <c r="C41" s="2">
         <v>0.5</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="7">
         <v>44593</v>
       </c>
       <c r="C42" s="2">
         <v>0.25</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="7">
         <v>44562</v>
       </c>
       <c r="C43" s="2">
         <v>0.25</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="7">
         <v>44531</v>
       </c>
       <c r="C44" s="2">
         <v>0.25</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="7">
         <v>44501</v>
       </c>
       <c r="C45" s="2">
         <v>0.25</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="7">
         <v>44470</v>
       </c>
       <c r="C46" s="2">
         <v>0.25</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="7">
         <v>44440</v>
       </c>
       <c r="C47" s="2">
         <v>0.25</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="7">
         <v>44409</v>
       </c>
       <c r="C48" s="2">
         <v>0.25</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="7">
         <v>44378</v>
       </c>
       <c r="C49" s="2">
         <v>0.25</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="7">
         <v>44348</v>
       </c>
       <c r="C50" s="2">
         <v>0.25</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="7">
         <v>44317</v>
       </c>
       <c r="C51" s="2">
         <v>0.25</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="7">
         <v>44287</v>
       </c>
       <c r="C52" s="2">
         <v>0.25</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="7">
         <v>44256</v>
       </c>
       <c r="C53" s="2">
         <v>0.25</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="7">
         <v>44228</v>
       </c>
       <c r="C54" s="2">
         <v>0.25</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="7">
         <v>44197</v>
       </c>
       <c r="C55" s="2">
         <v>0.25</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="7">
         <v>44166</v>
       </c>
       <c r="C56" s="2">
         <v>0.25</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="7">
         <v>44136</v>
       </c>
       <c r="C57" s="2">
         <v>0.25</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="7">
         <v>44105</v>
       </c>
       <c r="C58" s="2">
         <v>0.25</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="7">
         <v>44075</v>
       </c>
       <c r="C59" s="2">
         <v>0.25</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="7">
         <v>44044</v>
       </c>
       <c r="C60" s="2">
         <v>0.25</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="7">
         <v>44013</v>
       </c>
       <c r="C61" s="2">
         <v>0.25</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="7">
         <v>43983</v>
       </c>
       <c r="C62" s="2">
         <v>0.25</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="7">
         <v>43952</v>
       </c>
       <c r="C63" s="2">
         <v>0.25</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="7">
         <v>43922</v>
       </c>
       <c r="C64" s="2">
         <v>0.25</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="7">
         <v>43891</v>
       </c>
       <c r="C65" s="2">
         <v>0.25</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="7">
         <v>43862</v>
       </c>
       <c r="C66" s="2">
         <v>1.75</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="7">
         <v>43831</v>
       </c>
       <c r="C67" s="2">
         <v>1.75</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
